--- a/SecA_Projects.xlsx
+++ b/SecA_Projects.xlsx
@@ -489,6 +489,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,40 +528,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -855,662 +855,663 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" thickBot="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="17"/>
     </row>
     <row r="4" spans="1:3" ht="39.950000000000003" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A26" s="8">
+      <c r="A26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A27" s="8">
+      <c r="A27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A28" s="8">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A29" s="8">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A30" s="8">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A31" s="8">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A32" s="8">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A33" s="8">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A34" s="8">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A35" s="8">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A36" s="8">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A37" s="8">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A38" s="8">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A39" s="8">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A40" s="8">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A41" s="8">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A42" s="8">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A43" s="8">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A44" s="8">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A45" s="8">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A46" s="8">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A47" s="8">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A48" s="8">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A49" s="8">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A50" s="8">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A51" s="8">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A52" s="8">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A53" s="8">
+      <c r="A53" s="3">
         <v>50</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A54" s="8">
+      <c r="A54" s="3">
         <v>51</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A55" s="8">
+      <c r="A55" s="3">
         <v>52</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A56" s="8">
+      <c r="A56" s="3">
         <v>53</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A57" s="8">
+      <c r="A57" s="3">
         <v>54</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A58" s="8">
+      <c r="A58" s="3">
         <v>55</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A59" s="8">
+      <c r="A59" s="3">
         <v>56</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="39.950000000000003" customHeight="1">
-      <c r="A60" s="8">
+      <c r="A60" s="3">
         <v>57</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="8" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState ref="C4:C28">
     <sortCondition ref="C4:C28"/>
   </sortState>
